--- a/_CONCAT_DOWNER_SP1NZTA.xlsx
+++ b/_CONCAT_DOWNER_SP1NZTA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE9C382-98E0-467A-8204-7E76CB91F17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A881870-4094-4663-BB5B-C36D6909DCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="330" windowWidth="29265" windowHeight="19695" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="450" yWindow="540" windowWidth="29040" windowHeight="19815" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Dimension Inspection_x000D_
+Visual</t>
+  </si>
+  <si>
+    <t>D,V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV, SE </t>
+  </si>
+  <si>
+    <t>4.6.1</t>
+  </si>
+  <si>
+    <t>4.6.2</t>
+  </si>
+  <si>
+    <t>4.6.3</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>CVSC - Detailed Plan</t>
+  </si>
+  <si>
+    <t>IFC Drawings, _x000D_
+Sheet No. C-7011</t>
+  </si>
+  <si>
+    <t>Refer to IFC drawing to reference the sign and marking details for the CVSC facility._x000D_
+_x000D_
+All dimensions and requirements are listed within the Legend of the drawing.</t>
+  </si>
+  <si>
+    <t>_x000D_
+Visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SE </t>
+  </si>
+  <si>
+    <t>IFC Drawings, _x000D_
+Sheet No. C-7012</t>
+  </si>
+  <si>
+    <t>Sign Details and Dimensions</t>
+  </si>
+  <si>
+    <t>- Legend is series E 125 unless stated otherwise_x000D_
+_x000D_
+- Contractor to organise for shop drawings of traffic signs to be in accordance with the Traffic Control Devices manual and manual of Traffic Signs and Road Markings_x000D_
+_x000D_
+- Traffic sign posts to be in accordance with RSMA_x000D_
+_x000D_
+- All measurements are in millimeters unless otherwise stated</t>
+  </si>
+  <si>
+    <t>IFC Drawings, 
+Sheet No. C-7100 and C-7101</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,7 +496,7 @@
   <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="T2" sqref="T2:T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -488,45 +556,72 @@
       <c r="AM1" s="3"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
       <c r="K2" t="str">
         <f>A2&amp;" - "&amp;B2</f>
-        <v xml:space="preserve"> - </v>
+        <v>4.6.1 - CVSC - Detailed Plan</v>
       </c>
       <c r="L2" t="str">
-        <f>"Specification - "&amp;C2</f>
-        <v xml:space="preserve">Specification - </v>
+        <f>"Standard/Specification - "&amp;C2</f>
+        <v>Standard/Specification - IFC Drawings, _x000D_
+Sheet No. C-7011</v>
       </c>
       <c r="M2" t="str">
         <f>"Acceptance Criteria - "&amp;D2</f>
-        <v xml:space="preserve">Acceptance Criteria - </v>
+        <v>Acceptance Criteria - Refer to IFC drawing to reference the sign and marking details for the CVSC facility._x000D_
+_x000D_
+All dimensions and requirements are listed within the Legend of the drawing.</v>
       </c>
       <c r="N2" t="str">
         <f>"Verifying Document - "&amp;E2</f>
-        <v xml:space="preserve">Verifying Document - </v>
+        <v>Verifying Document - Photos</v>
       </c>
       <c r="O2" t="str">
         <f>"Frequency - "&amp;F2</f>
-        <v xml:space="preserve">Frequency - </v>
+        <v>Frequency - All</v>
       </c>
       <c r="P2" t="str">
         <f>"Inspection Type (Visual, other) - "&amp;G2</f>
-        <v xml:space="preserve">Inspection Type (Visual, other) - </v>
+        <v>Inspection Type (Visual, other) - _x000D_
+Visual</v>
       </c>
       <c r="Q2" t="str">
         <f>"Inspection: Key - "&amp;H2</f>
-        <v xml:space="preserve">Inspection: Key - </v>
+        <v>Inspection: Key - V</v>
       </c>
       <c r="R2" t="str">
         <f>"Inspection: By - "&amp;I2</f>
-        <v xml:space="preserve">Inspection: By - </v>
+        <v xml:space="preserve">Inspection: By -  SE </v>
       </c>
       <c r="T2" t="str" cm="1">
-        <f t="array" ref="T2:T9">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,K2:R20)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>-</v>
+        <f t="array" ref="T2:T25">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,K2:R20)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>4.6.1 - CVSC - Detailed Plan</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Z2" s="1"/>
@@ -568,47 +663,105 @@
       </c>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K15" si="0">A3&amp;" - "&amp;B3</f>
+        <v>4.6.2 - CVSC - Detailed Plan</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L15" si="1">"Standard/Specification - "&amp;C3</f>
+        <v>Standard/Specification - IFC Drawings, _x000D_
+Sheet No. C-7012</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M15" si="2">"Acceptance Criteria - "&amp;D3</f>
+        <v>Acceptance Criteria - Refer to IFC drawing to reference the sign and marking details for the CVSC facility._x000D_
+_x000D_
+All dimensions and requirements are listed within the Legend of the drawing.</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N15" si="3">"Verifying Document - "&amp;E3</f>
+        <v>Verifying Document - Photos</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O15" si="4">"Frequency - "&amp;F3</f>
+        <v>Frequency - All</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P15" si="5">"Inspection Type (Visual, other) - "&amp;G3</f>
+        <v>Inspection Type (Visual, other) - Dimension Inspection_x000D_
+Visual</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q15" si="6">"Inspection: Key - "&amp;H3</f>
+        <v>Inspection: Key - D,V</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R15" si="7">"Inspection: By - "&amp;I3</f>
+        <v xml:space="preserve">Inspection: By - SV, SE </v>
+      </c>
       <c r="T3" t="str">
-        <v>Specification -</v>
+        <v>Standard/Specification - IFC Drawings, 
+Sheet No. C-7011</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AF3" t="str">
-        <f t="shared" ref="AF3:AF6" si="0">V3&amp;" - "&amp;W3</f>
+        <f t="shared" ref="AF3:AF6" si="8">V3&amp;" - "&amp;W3</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="AG3" t="str">
-        <f t="shared" ref="AG3:AG6" si="1">"Inspection Point: Quality Control Activity - "&amp;X3</f>
+        <f t="shared" ref="AG3:AG6" si="9">"Inspection Point: Quality Control Activity - "&amp;X3</f>
         <v xml:space="preserve">Inspection Point: Quality Control Activity - </v>
       </c>
       <c r="AH3" t="str">
-        <f t="shared" ref="AH3:AH6" si="2">"Acceptance Criteria - "&amp;Y3</f>
+        <f t="shared" ref="AH3:AH6" si="10">"Acceptance Criteria - "&amp;Y3</f>
         <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="AI3" t="str">
-        <f t="shared" ref="AI3:AI6" si="3">"Verifying Document - "&amp;Z3</f>
+        <f t="shared" ref="AI3:AI6" si="11">"Verifying Document - "&amp;Z3</f>
         <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="AJ3" t="str">
-        <f t="shared" ref="AJ3:AJ6" si="4">"Frequency - "&amp;AA3</f>
+        <f t="shared" ref="AJ3:AJ6" si="12">"Frequency - "&amp;AA3</f>
         <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="AK3" t="str">
-        <f t="shared" ref="AK3:AK6" si="5">"Inspection Type - "&amp;AB3</f>
+        <f t="shared" ref="AK3:AK6" si="13">"Inspection Type - "&amp;AB3</f>
         <v xml:space="preserve">Inspection Type - </v>
       </c>
       <c r="AL3" t="str">
-        <f t="shared" ref="AL3:AL6" si="6">"Inspection: Key - "&amp;AC3</f>
+        <f t="shared" ref="AL3:AL6" si="14">"Inspection: Key - "&amp;AC3</f>
         <v xml:space="preserve">Inspection: Key - </v>
       </c>
       <c r="AM3" t="str">
-        <f t="shared" ref="AM3:AM6" si="7">"Inspection: By - "&amp;AD3</f>
+        <f t="shared" ref="AM3:AM6" si="15">"Inspection: By - "&amp;AD3</f>
         <v xml:space="preserve">Inspection: By - </v>
       </c>
       <c r="AO3" t="str">
@@ -616,46 +769,109 @@
       </c>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4" si="16">A4&amp;" - "&amp;B4</f>
+        <v>4.6.3 - Sign Details and Dimensions</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4" si="17">"Standard/Specification - "&amp;C4</f>
+        <v>Standard/Specification - IFC Drawings, 
+Sheet No. C-7100 and C-7101</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4" si="18">"Acceptance Criteria - "&amp;D4</f>
+        <v>Acceptance Criteria - - Legend is series E 125 unless stated otherwise_x000D_
+_x000D_
+- Contractor to organise for shop drawings of traffic signs to be in accordance with the Traffic Control Devices manual and manual of Traffic Signs and Road Markings_x000D_
+_x000D_
+- Traffic sign posts to be in accordance with RSMA_x000D_
+_x000D_
+- All measurements are in millimeters unless otherwise stated</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4" si="19">"Verifying Document - "&amp;E4</f>
+        <v>Verifying Document - Photos</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4" si="20">"Frequency - "&amp;F4</f>
+        <v>Frequency - All</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4" si="21">"Inspection Type (Visual, other) - "&amp;G4</f>
+        <v>Inspection Type (Visual, other) - Dimension Inspection_x000D_
+Visual</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4" si="22">"Inspection: Key - "&amp;H4</f>
+        <v>Inspection: Key - D,V</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4" si="23">"Inspection: By - "&amp;I4</f>
+        <v xml:space="preserve">Inspection: By - SV, SE </v>
+      </c>
       <c r="T4" t="str">
-        <v>Acceptance Criteria -</v>
+        <v>Acceptance Criteria - Refer to IFC drawing to reference the sign and marking details for the CVSC facility.
+All dimensions and requirements are listed within the Legend of the drawing.</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AF4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="AG4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Inspection Point: Quality Control Activity - </v>
       </c>
       <c r="AH4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="AI4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="AJ4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="AK4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Inspection Type - </v>
       </c>
       <c r="AL4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">Inspection: Key - </v>
       </c>
       <c r="AM4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">Inspection: By - </v>
       </c>
       <c r="AO4" t="str">
@@ -669,42 +885,43 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="T5" t="str">
-        <v>Verifying Document -</v>
+        <v>Verifying Document - Photos</v>
       </c>
       <c r="V5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AF5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="AG5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Inspection Point: Quality Control Activity - </v>
       </c>
       <c r="AH5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="AI5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="AJ5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="AK5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Inspection Type - </v>
       </c>
       <c r="AL5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">Inspection: Key - </v>
       </c>
       <c r="AM5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">Inspection: By - </v>
       </c>
       <c r="AO5" t="str">
@@ -717,39 +934,39 @@
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
       <c r="T6" t="str">
-        <v>Frequency -</v>
+        <v>Frequency - All</v>
       </c>
       <c r="X6" s="1"/>
       <c r="AF6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="AG6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Inspection Point: Quality Control Activity - </v>
       </c>
       <c r="AH6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="AI6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="AJ6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="AK6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Inspection Type - </v>
       </c>
       <c r="AL6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">Inspection: Key - </v>
       </c>
       <c r="AM6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">Inspection: By - </v>
       </c>
       <c r="AO6" t="str">
@@ -762,7 +979,8 @@
       <c r="D7" s="1"/>
       <c r="F7" s="1"/>
       <c r="T7" t="str">
-        <v>Inspection Type (Visual, other) -</v>
+        <v>Inspection Type (Visual, other) - 
+Visual</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -774,8 +992,9 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="T8" t="str">
-        <v>Inspection: Key -</v>
+        <v>Inspection: Key - V</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Z8" s="1"/>
@@ -787,8 +1006,9 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="T9" t="str">
-        <v>Inspection: By -</v>
+        <v>Inspection: By -  SE</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Z9" s="1"/>
@@ -797,18 +1017,27 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
+      <c r="T10" t="str">
+        <v>4.6.2 - CVSC - Detailed Plan</v>
+      </c>
       <c r="AO10" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+      <c r="T11" t="str">
+        <v>Standard/Specification - IFC Drawings, 
+Sheet No. C-7012</v>
+      </c>
       <c r="AO11" t="str">
         <v>Inspection Point: Quality Control Activity -</v>
       </c>
@@ -819,6 +1048,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
+      <c r="T12" t="str">
+        <v>Acceptance Criteria - Refer to IFC drawing to reference the sign and marking details for the CVSC facility.
+All dimensions and requirements are listed within the Legend of the drawing.</v>
+      </c>
       <c r="AO12" t="str">
         <v>Acceptance Criteria -</v>
       </c>
@@ -826,6 +1059,9 @@
     <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
+      <c r="T13" t="str">
+        <v>Verifying Document - Photos</v>
+      </c>
       <c r="AO13" t="str">
         <v>Verifying Document -</v>
       </c>
@@ -833,6 +1069,9 @@
     <row r="14" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
+      <c r="T14" t="str">
+        <v>Frequency - All</v>
+      </c>
       <c r="AO14" t="str">
         <v>Frequency -</v>
       </c>
@@ -841,12 +1080,19 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
+      <c r="T15" t="str">
+        <v>Inspection Type (Visual, other) - Dimension Inspection
+Visual</v>
+      </c>
       <c r="AO15" t="str">
         <v>Inspection Type -</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
+      <c r="T16" t="str">
+        <v>Inspection: Key - D,V</v>
+      </c>
       <c r="AO16" t="str">
         <v>Inspection: Key -</v>
       </c>
@@ -854,46 +1100,78 @@
     <row r="17" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
+      <c r="T17" t="str">
+        <v>Inspection: By - SV, SE</v>
+      </c>
       <c r="AO17" t="str">
         <v>Inspection: By -</v>
       </c>
     </row>
     <row r="18" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T18" t="str">
+        <v>4.6.3 - Sign Details and Dimensions</v>
+      </c>
       <c r="AO18" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="19" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T19" t="str">
+        <v>Standard/Specification - IFC Drawings, 
+Sheet No. C-7100 and C-7101</v>
+      </c>
       <c r="AO19" t="str">
         <v>Inspection Point: Quality Control Activity -</v>
       </c>
     </row>
     <row r="20" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T20" t="str">
+        <v>Acceptance Criteria - - Legend is series E 125 unless stated otherwise
+- Contractor to organise for shop drawings of traffic signs to be in accordance with the Traffic Control Devices manual and manual of Traffic Signs and Road Markings
+- Traffic sign posts to be in accordance with RSMA
+- All measurements are in millimeters unless otherwise stated</v>
+      </c>
       <c r="AO20" t="str">
         <v>Acceptance Criteria -</v>
       </c>
     </row>
     <row r="21" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T21" t="str">
+        <v>Verifying Document - Photos</v>
+      </c>
       <c r="AO21" t="str">
         <v>Verifying Document -</v>
       </c>
     </row>
     <row r="22" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T22" t="str">
+        <v>Frequency - All</v>
+      </c>
       <c r="AO22" t="str">
         <v>Frequency -</v>
       </c>
     </row>
     <row r="23" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T23" t="str">
+        <v>Inspection Type (Visual, other) - Dimension Inspection
+Visual</v>
+      </c>
       <c r="AO23" t="str">
         <v>Inspection Type -</v>
       </c>
     </row>
     <row r="24" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T24" t="str">
+        <v>Inspection: Key - D,V</v>
+      </c>
       <c r="AO24" t="str">
         <v>Inspection: Key -</v>
       </c>
     </row>
     <row r="25" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T25" t="str">
+        <v>Inspection: By - SV, SE</v>
+      </c>
       <c r="AO25" t="str">
         <v>Inspection: By -</v>
       </c>
